--- a/biology/Botanique/Lamier_blanc/Lamier_blanc.xlsx
+++ b/biology/Botanique/Lamier_blanc/Lamier_blanc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lamium album
 L'ortie blanche ou, mieux, le lamier blanc Écouter (Lamium album) est une espèce de plantes herbacées de la famille des Lamiaceae. Elle est originaire de l'ensemble de l'Europe et de l'Asie occidentale. Elle croît dans des habitats variés allant de la prairie aux régions boisées, généralement sur des sols humides.
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lamium est issu du latin lamia, tiré du même mot grec désignant une créature monstrueuse (Lamia, ogresse dans la mythologie grecque), provenant de laimos, « gorge, gosier ». La corolle bilabiée des lamiers peut évoquer, pour un esprit imaginatif, la gueule ouverte de ces lamies monstrueuses. L'épithète album, « blanc », évoque la couleur des fleurs[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lamium est issu du latin lamia, tiré du même mot grec désignant une créature monstrueuse (Lamia, ogresse dans la mythologie grecque), provenant de laimos, « gorge, gosier ». La corolle bilabiée des lamiers peut évoquer, pour un esprit imaginatif, la gueule ouverte de ces lamies monstrueuses. L'épithète album, « blanc », évoque la couleur des fleurs.
 </t>
         </is>
       </c>
@@ -546,10 +560,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Appareil végétatif
-C'est une espèce de plantes herbacée vivace par un rhizome grêle, formant des colonies souvent importantes. Les tiges inclinées à ras de terre puis dressées, creuses, font 30 à 50 cm de hauteur en moyenne, et peuvent atteindre 100 cm dans des conditions optimales. Tomenteuses, elles ont, comme beaucoup de Lamiaceae, une section carrée. Les feuilles, d'un beau vert, sont opposées décussées et font 3 à 8 cm de long et 2 à 5 cm de large. Elles ont une forme triangulaire (as de pique) et un aspect duveteux au toucher. Leur bord est irrégulièrement denté et se termine par une pointe effilée. le pétiole peut mesurer jusqu'à 5 cm de long. Par leur allure générale, leurs découpures, et leur ordre d'insertion, ces feuilles ressemblent à celles des orties au milieu desquelles le Lamier blanc pousse parfois, mais elles n'ont pas les stipules[2].
-Appareil reproducteur
-Inflorescence : 6 à 15 fleurs groupées en verticilles ou glomérules à l'aisselle des feuilles
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une espèce de plantes herbacée vivace par un rhizome grêle, formant des colonies souvent importantes. Les tiges inclinées à ras de terre puis dressées, creuses, font 30 à 50 cm de hauteur en moyenne, et peuvent atteindre 100 cm dans des conditions optimales. Tomenteuses, elles ont, comme beaucoup de Lamiaceae, une section carrée. Les feuilles, d'un beau vert, sont opposées décussées et font 3 à 8 cm de long et 2 à 5 cm de large. Elles ont une forme triangulaire (as de pique) et un aspect duveteux au toucher. Leur bord est irrégulièrement denté et se termine par une pointe effilée. le pétiole peut mesurer jusqu'à 5 cm de long. Par leur allure générale, leurs découpures, et leur ordre d'insertion, ces feuilles ressemblent à celles des orties au milieu desquelles le Lamier blanc pousse parfois, mais elles n'ont pas les stipules.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lamier_blanc</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lamier_blanc</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Inflorescence : 6 à 15 fleurs groupées en verticilles ou glomérules à l'aisselle des feuilles
 Fleurs blanches mesurant entre 1,5 et 2,5 cm de long, à la corolle bilabiée (à lèvre supérieure ciliée) comportant un anneau interne de poils
 Période de floraison : mai-août
 Sexualité : hermaphrodite
@@ -560,37 +614,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Lamier_blanc</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Lamier_blanc</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Habitat et répartition</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Habitat type : plante nitrophile, elle se développe dans les friches et lisières vivaces médioeuropéennes, eutrophiles, mésohydriques. Elle est associée au cortège floristique suivant : Grande Bardane, Petite Bardane, Raifort, Grande ciguë, Ballote fétide, Grande ortie[3]
-Aire de répartition : eurasiatique[4]</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -612,23 +635,170 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Habitat et répartition</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Habitat type : plante nitrophile, elle se développe dans les friches et lisières vivaces médioeuropéennes, eutrophiles, mésohydriques. Elle est associée au cortège floristique suivant : Grande Bardane, Petite Bardane, Raifort, Grande ciguë, Ballote fétide, Grande ortie
+Aire de répartition : eurasiatique</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Lamier_blanc</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lamier_blanc</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comestibilité
-Les jeunes feuilles, les pousses feuillées et les têtes fleuries sont comestibles (avec un goût de champignon moins prononcé que le lamier pourpre) et peuvent être consommées en salades ou être cuisinées comme des légumes. Les fleurs sont également comestibles[2].
-Alimentation des animaux
-Certains animaux peuvent la consommer, notamment le cochon d'Inde[5],[6].
-Propriétés médicinales
-Les feuilles et les sommités fleuries sont utilisées comme astringent[7], hémostatique et expectorant[2].
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Comestibilité</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les jeunes feuilles, les pousses feuillées et les têtes fleuries sont comestibles (avec un goût de champignon moins prononcé que le lamier pourpre) et peuvent être consommées en salades ou être cuisinées comme des légumes. Les fleurs sont également comestibles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Lamier_blanc</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lamier_blanc</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Comestibilité</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Alimentation des animaux</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certains animaux peuvent la consommer, notamment le cochon d'Inde,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Lamier_blanc</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lamier_blanc</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Propriétés médicinales</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles et les sommités fleuries sont utilisées comme astringent, hémostatique et expectorant.
 La plante a également un certain nombre d'utilisations en phytothérapie :
 ses propriétés astringentes dues à des tanins catéchiques la rendent active dans la séborrhée du cuir chevelu (sous forme de shampooing),
 des infusions de feuilles sont aussi utilisées traditionnellement comme anti-infectieux de la muqueuse vaginale.
-Plantée en association avec la pomme de terre, elle repousse les doryphores et améliore le goût des pommes de terre[8].
-Usage ludique
-Cette plante « ressemble tant à l'ortie que les enfants s'amusent à arracher les fleurs sous les feuilles pour faire peur à leurs camarades[9] ».
+Plantée en association avec la pomme de terre, elle repousse les doryphores et améliore le goût des pommes de terre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Lamier_blanc</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lamier_blanc</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Usage ludique</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante « ressemble tant à l'ortie que les enfants s'amusent à arracher les fleurs sous les feuilles pour faire peur à leurs camarades ».
 </t>
         </is>
       </c>
